--- a/ig/crucibleWOrkflow/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/crucibleWOrkflow/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T17:18:00+00:00</t>
+    <t>2024-02-11T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/crucibleWOrkflow/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/crucibleWOrkflow/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T17:18:24+00:00</t>
+    <t>2024-02-12T16:47:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/crucibleWOrkflow/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/crucibleWOrkflow/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T16:47:11+00:00</t>
+    <t>2024-02-12T17:42:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
